--- a/data/BAJAJ_AUTO.xlsx
+++ b/data/BAJAJ_AUTO.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H497"/>
+  <dimension ref="A1:H500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13329,6 +13329,84 @@
         <v>7852.82</v>
       </c>
     </row>
+    <row r="498" spans="1:8">
+      <c r="A498" s="2">
+        <v>42775</v>
+      </c>
+      <c r="B498">
+        <v>2797.4</v>
+      </c>
+      <c r="C498">
+        <v>2810</v>
+      </c>
+      <c r="D498">
+        <v>2751.1</v>
+      </c>
+      <c r="E498">
+        <v>2796</v>
+      </c>
+      <c r="F498">
+        <v>2784.3</v>
+      </c>
+      <c r="G498">
+        <v>213997</v>
+      </c>
+      <c r="H498">
+        <v>5927.58</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="A499" s="2">
+        <v>42776</v>
+      </c>
+      <c r="B499">
+        <v>2795</v>
+      </c>
+      <c r="C499">
+        <v>2812.8</v>
+      </c>
+      <c r="D499">
+        <v>2773.65</v>
+      </c>
+      <c r="E499">
+        <v>2798.4</v>
+      </c>
+      <c r="F499">
+        <v>2800.8</v>
+      </c>
+      <c r="G499">
+        <v>165244</v>
+      </c>
+      <c r="H499">
+        <v>4622.44</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
+      <c r="A500" s="2">
+        <v>42779</v>
+      </c>
+      <c r="B500">
+        <v>2815</v>
+      </c>
+      <c r="C500">
+        <v>2817</v>
+      </c>
+      <c r="D500">
+        <v>2785</v>
+      </c>
+      <c r="E500">
+        <v>2810.5</v>
+      </c>
+      <c r="F500">
+        <v>2806.5</v>
+      </c>
+      <c r="G500">
+        <v>116262</v>
+      </c>
+      <c r="H500">
+        <v>3256.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
